--- a/zad2/instrukcje.xlsx
+++ b/zad2/instrukcje.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltmol\CLionProjects\optymalizacja kodu\zad2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltmol\CLionProjects\optymalizacja kodu\OKNRA\zad2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4E23FC-4FBB-45A5-99E1-93F88E318713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1883EE9-2D82-4CAF-AD0F-E87DAD5F0A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,79 +316,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>285525</c:v>
+                  <c:v>528042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2115185</c:v>
+                  <c:v>4067422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6962445</c:v>
+                  <c:v>13563604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16299306</c:v>
+                  <c:v>31960586</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31597768</c:v>
+                  <c:v>62202370</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54329831</c:v>
+                  <c:v>107232952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85967495</c:v>
+                  <c:v>169996340</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>127982758</c:v>
+                  <c:v>253436546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>181847634</c:v>
+                  <c:v>360497523</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>249034086</c:v>
+                  <c:v>494123311</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>331014152</c:v>
+                  <c:v>657257933</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>429259820</c:v>
+                  <c:v>852845329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>545243111</c:v>
+                  <c:v>1083829555</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>680435973</c:v>
+                  <c:v>1353154650</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>836310627</c:v>
+                  <c:v>1663764522</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1014338768</c:v>
+                  <c:v>2018603038</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1215992364</c:v>
+                  <c:v>2420614557</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1442743668</c:v>
+                  <c:v>2872742797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1696064668</c:v>
+                  <c:v>3377931992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1977426941</c:v>
+                  <c:v>3939125844</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2288303099</c:v>
+                  <c:v>4559268554</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2630164802</c:v>
+                  <c:v>5241303902</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3004484291</c:v>
+                  <c:v>5988176123</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3412732931</c:v>
+                  <c:v>6802829111</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3856383631</c:v>
+                  <c:v>7688207125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,7 +396,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E916-4450-85FF-FADF387FACF1}"/>
+              <c16:uniqueId val="{00000000-8B60-4D1C-9775-9C2ECE87F02E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -597,7 +597,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E916-4450-85FF-FADF387FACF1}"/>
+              <c16:uniqueId val="{00000001-8B60-4D1C-9775-9C2ECE87F02E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -798,7 +798,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E916-4450-85FF-FADF387FACF1}"/>
+              <c16:uniqueId val="{00000002-8B60-4D1C-9775-9C2ECE87F02E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -999,7 +999,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E916-4450-85FF-FADF387FACF1}"/>
+              <c16:uniqueId val="{00000003-8B60-4D1C-9775-9C2ECE87F02E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1200,7 +1200,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E916-4450-85FF-FADF387FACF1}"/>
+              <c16:uniqueId val="{00000004-8B60-4D1C-9775-9C2ECE87F02E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1401,7 +1401,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E916-4450-85FF-FADF387FACF1}"/>
+              <c16:uniqueId val="{00000005-8B60-4D1C-9775-9C2ECE87F02E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1604,7 +1604,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E916-4450-85FF-FADF387FACF1}"/>
+              <c16:uniqueId val="{00000006-8B60-4D1C-9775-9C2ECE87F02E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1807,7 +1807,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-E916-4450-85FF-FADF387FACF1}"/>
+              <c16:uniqueId val="{00000007-8B60-4D1C-9775-9C2ECE87F02E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1820,11 +1820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2030608863"/>
-        <c:axId val="2030611743"/>
+        <c:axId val="2120937295"/>
+        <c:axId val="108546943"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2030608863"/>
+        <c:axId val="2120937295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,13 +1851,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Rozmiar</a:t>
+                  <a:t>Rozmiar macierzy</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL" baseline="0"/>
-                  <a:t> macierzy</a:t>
-                </a:r>
-                <a:endParaRPr lang="pl-PL"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1927,7 +1922,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030611743"/>
+        <c:crossAx val="108546943"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1935,7 +1930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030611743"/>
+        <c:axId val="108546943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,13 +1971,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Ilość</a:t>
+                  <a:t>Ilość instrukcji</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL" baseline="0"/>
-                  <a:t> instrukcji</a:t>
-                </a:r>
-                <a:endParaRPr lang="pl-PL"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2046,7 +2036,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030608863"/>
+        <c:crossAx val="2120937295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2686,23 +2676,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B528190F-28B2-CC8E-13F5-2C828C0F39CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA5CC01-2B0D-FE54-C795-6E5E8E255E8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +3001,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="A1:I26"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3050,7 +3040,7 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>285525</v>
+        <v>528042</v>
       </c>
       <c r="C2">
         <v>285525</v>
@@ -3079,7 +3069,7 @@
         <v>80</v>
       </c>
       <c r="B3">
-        <v>2115185</v>
+        <v>4067422</v>
       </c>
       <c r="C3">
         <v>2115185</v>
@@ -3108,7 +3098,7 @@
         <v>120</v>
       </c>
       <c r="B4">
-        <v>6962445</v>
+        <v>13563604</v>
       </c>
       <c r="C4">
         <v>6962446</v>
@@ -3137,7 +3127,7 @@
         <v>160</v>
       </c>
       <c r="B5">
-        <v>16299306</v>
+        <v>31960586</v>
       </c>
       <c r="C5">
         <v>16299307</v>
@@ -3166,7 +3156,7 @@
         <v>200</v>
       </c>
       <c r="B6">
-        <v>31597768</v>
+        <v>62202370</v>
       </c>
       <c r="C6">
         <v>31597768</v>
@@ -3195,7 +3185,7 @@
         <v>240</v>
       </c>
       <c r="B7">
-        <v>54329831</v>
+        <v>107232952</v>
       </c>
       <c r="C7">
         <v>54329834</v>
@@ -3224,7 +3214,7 @@
         <v>280</v>
       </c>
       <c r="B8">
-        <v>85967495</v>
+        <v>169996340</v>
       </c>
       <c r="C8">
         <v>85967500</v>
@@ -3253,7 +3243,7 @@
         <v>320</v>
       </c>
       <c r="B9">
-        <v>127982758</v>
+        <v>253436546</v>
       </c>
       <c r="C9">
         <v>127982758</v>
@@ -3282,7 +3272,7 @@
         <v>360</v>
       </c>
       <c r="B10">
-        <v>181847634</v>
+        <v>360497523</v>
       </c>
       <c r="C10">
         <v>181847621</v>
@@ -3311,7 +3301,7 @@
         <v>400</v>
       </c>
       <c r="B11">
-        <v>249034086</v>
+        <v>494123311</v>
       </c>
       <c r="C11">
         <v>249034087</v>
@@ -3340,7 +3330,7 @@
         <v>440</v>
       </c>
       <c r="B12">
-        <v>331014152</v>
+        <v>657257933</v>
       </c>
       <c r="C12">
         <v>331014154</v>
@@ -3369,7 +3359,7 @@
         <v>480</v>
       </c>
       <c r="B13">
-        <v>429259820</v>
+        <v>852845329</v>
       </c>
       <c r="C13">
         <v>429259820</v>
@@ -3398,7 +3388,7 @@
         <v>520</v>
       </c>
       <c r="B14">
-        <v>545243111</v>
+        <v>1083829555</v>
       </c>
       <c r="C14">
         <v>545243125</v>
@@ -3427,7 +3417,7 @@
         <v>560</v>
       </c>
       <c r="B15">
-        <v>680435973</v>
+        <v>1353154650</v>
       </c>
       <c r="C15">
         <v>680436090</v>
@@ -3456,7 +3446,7 @@
         <v>600</v>
       </c>
       <c r="B16">
-        <v>836310627</v>
+        <v>1663764522</v>
       </c>
       <c r="C16">
         <v>836310656</v>
@@ -3485,7 +3475,7 @@
         <v>640</v>
       </c>
       <c r="B17">
-        <v>1014338768</v>
+        <v>2018603038</v>
       </c>
       <c r="C17">
         <v>1014338615</v>
@@ -3514,7 +3504,7 @@
         <v>680</v>
       </c>
       <c r="B18">
-        <v>1215992364</v>
+        <v>2420614557</v>
       </c>
       <c r="C18">
         <v>1215992600</v>
@@ -3543,7 +3533,7 @@
         <v>720</v>
       </c>
       <c r="B19">
-        <v>1442743668</v>
+        <v>2872742797</v>
       </c>
       <c r="C19">
         <v>1442743756</v>
@@ -3572,7 +3562,7 @@
         <v>760</v>
       </c>
       <c r="B20">
-        <v>1696064668</v>
+        <v>3377931992</v>
       </c>
       <c r="C20">
         <v>1696064667</v>
@@ -3601,7 +3591,7 @@
         <v>800</v>
       </c>
       <c r="B21">
-        <v>1977426941</v>
+        <v>3939125844</v>
       </c>
       <c r="C21">
         <v>1977427249</v>
@@ -3630,7 +3620,7 @@
         <v>840</v>
       </c>
       <c r="B22">
-        <v>2288303099</v>
+        <v>4559268554</v>
       </c>
       <c r="C22">
         <v>2288303109</v>
@@ -3659,7 +3649,7 @@
         <v>880</v>
       </c>
       <c r="B23">
-        <v>2630164802</v>
+        <v>5241303902</v>
       </c>
       <c r="C23">
         <v>2630165030</v>
@@ -3688,7 +3678,7 @@
         <v>920</v>
       </c>
       <c r="B24">
-        <v>3004484291</v>
+        <v>5988176123</v>
       </c>
       <c r="C24">
         <v>3004483960</v>
@@ -3717,7 +3707,7 @@
         <v>960</v>
       </c>
       <c r="B25">
-        <v>3412732931</v>
+        <v>6802829111</v>
       </c>
       <c r="C25">
         <v>3412733035</v>
@@ -3746,7 +3736,7 @@
         <v>1000</v>
       </c>
       <c r="B26">
-        <v>3856383631</v>
+        <v>7688207125</v>
       </c>
       <c r="C26">
         <v>3856383520</v>
